--- a/updated_filtered_data_with_lengths_carapace-kalkar.xlsx
+++ b/updated_filtered_data_with_lengths_carapace-kalkar.xlsx
@@ -812,7 +812,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487920</t>
+          <t>67e030680650a67af49c7f50</t>
         </is>
       </c>
       <c r="AD2" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487924</t>
+          <t>67e030680650a67af49c7f54</t>
         </is>
       </c>
       <c r="AD3" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487922</t>
+          <t>67e030680650a67af49c7f52</t>
         </is>
       </c>
       <c r="AD4" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487926</t>
+          <t>67e030680650a67af49c7f56</t>
         </is>
       </c>
       <c r="AD5" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c42</t>
+          <t>67e030690650a67af49c8272</t>
         </is>
       </c>
       <c r="AD6" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c44</t>
+          <t>67e030690650a67af49c8274</t>
         </is>
       </c>
       <c r="AD7" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c46</t>
+          <t>67e030690650a67af49c8276</t>
         </is>
       </c>
       <c r="AD8" t="n">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487dc0</t>
+          <t>67e0306a0650a67af49c83f0</t>
         </is>
       </c>
       <c r="AD9" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487dbe</t>
+          <t>67e0306a0650a67af49c83ee</t>
         </is>
       </c>
       <c r="AD10" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487ae9</t>
+          <t>67e030690650a67af49c8119</t>
         </is>
       </c>
       <c r="AD11" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487ae7</t>
+          <t>67e030690650a67af49c8117</t>
         </is>
       </c>
       <c r="AD12" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487aef</t>
+          <t>67e030690650a67af49c811f</t>
         </is>
       </c>
       <c r="AD13" t="n">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487aeb</t>
+          <t>67e030690650a67af49c811b</t>
         </is>
       </c>
       <c r="AD14" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a0d</t>
+          <t>67e030690650a67af49c803d</t>
         </is>
       </c>
       <c r="AD15" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a0b</t>
+          <t>67e030690650a67af49c803b</t>
         </is>
       </c>
       <c r="AD16" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487ca4</t>
+          <t>67e0306a0650a67af49c82d4</t>
         </is>
       </c>
       <c r="AD17" t="n">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487ca6</t>
+          <t>67e0306a0650a67af49c82d6</t>
         </is>
       </c>
       <c r="AD18" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879aa</t>
+          <t>67e030680650a67af49c7fda</t>
         </is>
       </c>
       <c r="AD19" t="n">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879a8</t>
+          <t>67e030680650a67af49c7fd8</t>
         </is>
       </c>
       <c r="AD20" t="n">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879ae</t>
+          <t>67e030680650a67af49c7fde</t>
         </is>
       </c>
       <c r="AD21" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4878da</t>
+          <t>67e030680650a67af49c7f0a</t>
         </is>
       </c>
       <c r="AD22" t="n">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4878dc</t>
+          <t>67e030680650a67af49c7f0c</t>
         </is>
       </c>
       <c r="AD23" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4878de</t>
+          <t>67e030680650a67af49c7f0e</t>
         </is>
       </c>
       <c r="AD24" t="n">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b16</t>
+          <t>67e030690650a67af49c8146</t>
         </is>
       </c>
       <c r="AD25" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b14</t>
+          <t>67e030690650a67af49c8144</t>
         </is>
       </c>
       <c r="AD26" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b18</t>
+          <t>67e030690650a67af49c8148</t>
         </is>
       </c>
       <c r="AD27" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487ab4</t>
+          <t>67e030690650a67af49c80e4</t>
         </is>
       </c>
       <c r="AD35" t="n">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487ab8</t>
+          <t>67e030690650a67af49c80e8</t>
         </is>
       </c>
       <c r="AD36" t="n">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487ab6</t>
+          <t>67e030690650a67af49c80e6</t>
         </is>
       </c>
       <c r="AD37" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487aae</t>
+          <t>67e030690650a67af49c80de</t>
         </is>
       </c>
       <c r="AD38" t="n">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487ab0</t>
+          <t>67e030690650a67af49c80e0</t>
         </is>
       </c>
       <c r="AD39" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b68</t>
+          <t>67e030690650a67af49c8198</t>
         </is>
       </c>
       <c r="AD40" t="n">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b6a</t>
+          <t>67e030690650a67af49c819a</t>
         </is>
       </c>
       <c r="AD41" t="n">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b76</t>
+          <t>67e030690650a67af49c81a6</t>
         </is>
       </c>
       <c r="AD42" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b6c</t>
+          <t>67e030690650a67af49c819c</t>
         </is>
       </c>
       <c r="AD43" t="n">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487960</t>
+          <t>67e030680650a67af49c7f90</t>
         </is>
       </c>
       <c r="AD44" t="n">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487962</t>
+          <t>67e030680650a67af49c7f92</t>
         </is>
       </c>
       <c r="AD45" t="n">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487966</t>
+          <t>67e030680650a67af49c7f96</t>
         </is>
       </c>
       <c r="AD46" t="n">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b3d</t>
+          <t>67e030690650a67af49c816d</t>
         </is>
       </c>
       <c r="AD47" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b39</t>
+          <t>67e030690650a67af49c8169</t>
         </is>
       </c>
       <c r="AD48" t="n">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b37</t>
+          <t>67e030690650a67af49c8167</t>
         </is>
       </c>
       <c r="AD49" t="n">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487b35</t>
+          <t>67e030690650a67af49c8165</t>
         </is>
       </c>
       <c r="AD50" t="n">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c69</t>
+          <t>67e0306a0650a67af49c8299</t>
         </is>
       </c>
       <c r="AD51" t="n">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c65</t>
+          <t>67e0306a0650a67af49c8295</t>
         </is>
       </c>
       <c r="AD52" t="n">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c6f</t>
+          <t>67e0306a0650a67af49c829f</t>
         </is>
       </c>
       <c r="AD53" t="n">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c67</t>
+          <t>67e0306a0650a67af49c8297</t>
         </is>
       </c>
       <c r="AD54" t="n">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c63</t>
+          <t>67e0306a0650a67af49c8293</t>
         </is>
       </c>
       <c r="AD55" t="n">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bc4</t>
+          <t>67e030690650a67af49c81f4</t>
         </is>
       </c>
       <c r="AD56" t="n">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bba</t>
+          <t>67e030690650a67af49c81ea</t>
         </is>
       </c>
       <c r="AD57" t="n">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bb8</t>
+          <t>67e030690650a67af49c81e8</t>
         </is>
       </c>
       <c r="AD58" t="n">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bbc</t>
+          <t>67e030690650a67af49c81ec</t>
         </is>
       </c>
       <c r="AD59" t="n">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bbe</t>
+          <t>67e030690650a67af49c81ee</t>
         </is>
       </c>
       <c r="AD60" t="n">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bc2</t>
+          <t>67e030690650a67af49c81f2</t>
         </is>
       </c>
       <c r="AD61" t="n">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd48794b</t>
+          <t>67e030680650a67af49c7f7b</t>
         </is>
       </c>
       <c r="AD62" t="n">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487949</t>
+          <t>67e030680650a67af49c7f79</t>
         </is>
       </c>
       <c r="AD63" t="n">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487dd3</t>
+          <t>67e0306a0650a67af49c8403</t>
         </is>
       </c>
       <c r="AD64" t="n">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487dd5</t>
+          <t>67e0306a0650a67af49c8405</t>
         </is>
       </c>
       <c r="AD65" t="n">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487dd7</t>
+          <t>67e0306a0650a67af49c8407</t>
         </is>
       </c>
       <c r="AD66" t="n">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c0e</t>
+          <t>67e030690650a67af49c823e</t>
         </is>
       </c>
       <c r="AD67" t="n">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c0c</t>
+          <t>67e030690650a67af49c823c</t>
         </is>
       </c>
       <c r="AD68" t="n">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c0a</t>
+          <t>67e030690650a67af49c823a</t>
         </is>
       </c>
       <c r="AD69" t="n">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c10</t>
+          <t>67e030690650a67af49c8240</t>
         </is>
       </c>
       <c r="AD70" t="n">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d0e</t>
+          <t>67e0306a0650a67af49c833e</t>
         </is>
       </c>
       <c r="AD71" t="n">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d12</t>
+          <t>67e0306a0650a67af49c8342</t>
         </is>
       </c>
       <c r="AD72" t="n">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d0a</t>
+          <t>67e0306a0650a67af49c833a</t>
         </is>
       </c>
       <c r="AD73" t="n">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d08</t>
+          <t>67e0306a0650a67af49c8338</t>
         </is>
       </c>
       <c r="AD74" t="n">
@@ -13694,7 +13694,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d0c</t>
+          <t>67e0306a0650a67af49c833c</t>
         </is>
       </c>
       <c r="AD75" t="n">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a22</t>
+          <t>67e030690650a67af49c8052</t>
         </is>
       </c>
       <c r="AD76" t="n">
@@ -14062,7 +14062,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a20</t>
+          <t>67e030690650a67af49c8050</t>
         </is>
       </c>
       <c r="AD77" t="n">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a26</t>
+          <t>67e030690650a67af49c8056</t>
         </is>
       </c>
       <c r="AD78" t="n">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a24</t>
+          <t>67e030690650a67af49c8054</t>
         </is>
       </c>
       <c r="AD79" t="n">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487ba1</t>
+          <t>67e030690650a67af49c81d1</t>
         </is>
       </c>
       <c r="AD80" t="n">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487ba1</t>
+          <t>67e030690650a67af49c81d1</t>
         </is>
       </c>
       <c r="AD81" t="n">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a5e</t>
+          <t>67e030690650a67af49c808e</t>
         </is>
       </c>
       <c r="AD82" t="n">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a5e</t>
+          <t>67e030690650a67af49c808e</t>
         </is>
       </c>
       <c r="AD83" t="n">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a62</t>
+          <t>67e030690650a67af49c8092</t>
         </is>
       </c>
       <c r="AD84" t="n">
@@ -15534,7 +15534,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879cb</t>
+          <t>67e030680650a67af49c7ffb</t>
         </is>
       </c>
       <c r="AD85" t="n">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879cf</t>
+          <t>67e030680650a67af49c7fff</t>
         </is>
       </c>
       <c r="AD86" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879d1</t>
+          <t>67e030680650a67af49c8001</t>
         </is>
       </c>
       <c r="AD87" t="n">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a4b</t>
+          <t>67e030690650a67af49c807b</t>
         </is>
       </c>
       <c r="AD88" t="n">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a49</t>
+          <t>67e030690650a67af49c8079</t>
         </is>
       </c>
       <c r="AD89" t="n">
@@ -16454,7 +16454,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d43</t>
+          <t>67e0306a0650a67af49c8373</t>
         </is>
       </c>
       <c r="AD90" t="n">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d45</t>
+          <t>67e0306a0650a67af49c8375</t>
         </is>
       </c>
       <c r="AD91" t="n">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d47</t>
+          <t>67e0306a0650a67af49c8377</t>
         </is>
       </c>
       <c r="AD92" t="n">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d47</t>
+          <t>67e0306a0650a67af49c8377</t>
         </is>
       </c>
       <c r="AD93" t="n">
@@ -17190,7 +17190,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d41</t>
+          <t>67e0306a0650a67af49c8371</t>
         </is>
       </c>
       <c r="AD94" t="n">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d41</t>
+          <t>67e0306a0650a67af49c8371</t>
         </is>
       </c>
       <c r="AD95" t="n">
@@ -17558,7 +17558,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a85</t>
+          <t>67e030690650a67af49c80b5</t>
         </is>
       </c>
       <c r="AD96" t="n">
@@ -17742,7 +17742,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a7f</t>
+          <t>67e030690650a67af49c80af</t>
         </is>
       </c>
       <c r="AD97" t="n">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a81</t>
+          <t>67e030690650a67af49c80b1</t>
         </is>
       </c>
       <c r="AD98" t="n">
@@ -18110,7 +18110,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487a83</t>
+          <t>67e030690650a67af49c80b3</t>
         </is>
       </c>
       <c r="AD99" t="n">
@@ -18294,7 +18294,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e45</t>
+          <t>67e0306a0650a67af49c8475</t>
         </is>
       </c>
       <c r="AD100" t="n">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e49</t>
+          <t>67e0306a0650a67af49c8479</t>
         </is>
       </c>
       <c r="AD101" t="n">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e47</t>
+          <t>67e0306a0650a67af49c8477</t>
         </is>
       </c>
       <c r="AD102" t="n">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e4b</t>
+          <t>67e0306a0650a67af49c847b</t>
         </is>
       </c>
       <c r="AD103" t="n">
@@ -19028,7 +19028,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879f4</t>
+          <t>67e030690650a67af49c8024</t>
         </is>
       </c>
       <c r="AD104" t="n">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd4879f6</t>
+          <t>67e030690650a67af49c8026</t>
         </is>
       </c>
       <c r="AD105" t="n">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e74</t>
+          <t>67e0306a0650a67af49c84a4</t>
         </is>
       </c>
       <c r="AD106" t="n">
@@ -19580,7 +19580,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e70</t>
+          <t>67e0306a0650a67af49c84a0</t>
         </is>
       </c>
       <c r="AD107" t="n">
@@ -19764,7 +19764,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e72</t>
+          <t>67e0306a0650a67af49c84a2</t>
         </is>
       </c>
       <c r="AD108" t="n">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e7a</t>
+          <t>67e0306a0650a67af49c84aa</t>
         </is>
       </c>
       <c r="AD109" t="n">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487cbb</t>
+          <t>67e0306a0650a67af49c82eb</t>
         </is>
       </c>
       <c r="AD110" t="n">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487cbd</t>
+          <t>67e0306a0650a67af49c82ed</t>
         </is>
       </c>
       <c r="AD111" t="n">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487ce0</t>
+          <t>67e0306a0650a67af49c8310</t>
         </is>
       </c>
       <c r="AD112" t="n">
@@ -20682,7 +20682,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487cdc</t>
+          <t>67e0306a0650a67af49c830c</t>
         </is>
       </c>
       <c r="AD113" t="n">
@@ -20866,7 +20866,7 @@
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487cda</t>
+          <t>67e0306a0650a67af49c830a</t>
         </is>
       </c>
       <c r="AD114" t="n">
@@ -21050,7 +21050,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487df2</t>
+          <t>67e0306a0650a67af49c8422</t>
         </is>
       </c>
       <c r="AD115" t="n">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487df2</t>
+          <t>67e0306a0650a67af49c8422</t>
         </is>
       </c>
       <c r="AD116" t="n">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="AC117" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487cfd</t>
+          <t>67e0306a0650a67af49c832d</t>
         </is>
       </c>
       <c r="AD117" t="n">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487bf9</t>
+          <t>67e030690650a67af49c8229</t>
         </is>
       </c>
       <c r="AD118" t="n">
@@ -21786,7 +21786,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487989</t>
+          <t>67e030680650a67af49c7fb9</t>
         </is>
       </c>
       <c r="AD119" t="n">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487987</t>
+          <t>67e030680650a67af49c7fb7</t>
         </is>
       </c>
       <c r="AD120" t="n">
@@ -22154,7 +22154,7 @@
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd48798b</t>
+          <t>67e030680650a67af49c7fbb</t>
         </is>
       </c>
       <c r="AD121" t="n">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487903</t>
+          <t>67e030680650a67af49c7f33</t>
         </is>
       </c>
       <c r="AD122" t="n">
@@ -22522,7 +22522,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>67d5d66c4d0df48dfd487901</t>
+          <t>67e030680650a67af49c7f31</t>
         </is>
       </c>
       <c r="AD123" t="n">
@@ -22706,7 +22706,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d91</t>
+          <t>67e0306a0650a67af49c83c1</t>
         </is>
       </c>
       <c r="AD124" t="n">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d8f</t>
+          <t>67e0306a0650a67af49c83bf</t>
         </is>
       </c>
       <c r="AD125" t="n">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d93</t>
+          <t>67e0306a0650a67af49c83c3</t>
         </is>
       </c>
       <c r="AD126" t="n">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d95</t>
+          <t>67e0306a0650a67af49c83c5</t>
         </is>
       </c>
       <c r="AD127" t="n">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d7c</t>
+          <t>67e0306a0650a67af49c83ac</t>
         </is>
       </c>
       <c r="AD128" t="n">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487d7a</t>
+          <t>67e0306a0650a67af49c83aa</t>
         </is>
       </c>
       <c r="AD129" t="n">
@@ -23810,7 +23810,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>67d5d66d4d0df48dfd487c33</t>
+          <t>67e030690650a67af49c8263</t>
         </is>
       </c>
       <c r="AD130" t="n">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="AC131" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e18</t>
+          <t>67e0306a0650a67af49c8448</t>
         </is>
       </c>
       <c r="AD131" t="n">
@@ -24178,7 +24178,7 @@
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e18</t>
+          <t>67e0306a0650a67af49c8448</t>
         </is>
       </c>
       <c r="AD132" t="n">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="AC133" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e1c</t>
+          <t>67e0306a0650a67af49c844c</t>
         </is>
       </c>
       <c r="AD133" t="n">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e1a</t>
+          <t>67e0306a0650a67af49c844a</t>
         </is>
       </c>
       <c r="AD134" t="n">
@@ -24730,7 +24730,7 @@
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487e09</t>
+          <t>67e0306a0650a67af49c8439</t>
         </is>
       </c>
       <c r="AD135" t="n">
@@ -24914,7 +24914,7 @@
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ea3</t>
+          <t>67e0306b0650a67af49c84d3</t>
         </is>
       </c>
       <c r="AD136" t="n">
@@ -25098,7 +25098,7 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ea1</t>
+          <t>67e0306b0650a67af49c84d1</t>
         </is>
       </c>
       <c r="AD137" t="n">
@@ -25282,7 +25282,7 @@
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f04</t>
+          <t>67e0306b0650a67af49c8534</t>
         </is>
       </c>
       <c r="AD138" t="n">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f06</t>
+          <t>67e0306b0650a67af49c8536</t>
         </is>
       </c>
       <c r="AD139" t="n">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f77</t>
+          <t>67e0306b0650a67af49c85a7</t>
         </is>
       </c>
       <c r="AD141" t="n">
@@ -26152,7 +26152,7 @@
       </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd488010</t>
+          <t>67e0306b0650a67af49c8640</t>
         </is>
       </c>
       <c r="AD144" t="n">
@@ -26548,7 +26548,7 @@
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd48802e</t>
+          <t>67e0306b0650a67af49c865e</t>
         </is>
       </c>
       <c r="AD147" t="n">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd488030</t>
+          <t>67e0306b0650a67af49c8660</t>
         </is>
       </c>
       <c r="AD148" t="n">
@@ -27022,7 +27022,7 @@
       </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f1d</t>
+          <t>67e0306b0650a67af49c854d</t>
         </is>
       </c>
       <c r="AD150" t="n">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="AC151" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487fb2</t>
+          <t>67e0306b0650a67af49c85e2</t>
         </is>
       </c>
       <c r="AD151" t="n">
@@ -27814,7 +27814,7 @@
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487fd5</t>
+          <t>67e0306b0650a67af49c8605</t>
         </is>
       </c>
       <c r="AD156" t="n">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="AC157" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f41</t>
+          <t>67e0306b0650a67af49c8571</t>
         </is>
       </c>
       <c r="AD157" t="n">
@@ -28180,7 +28180,7 @@
       </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487fbf</t>
+          <t>67e0306b0650a67af49c85ef</t>
         </is>
       </c>
       <c r="AD158" t="n">
@@ -29000,7 +29000,7 @@
       </c>
       <c r="AC165" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f4c</t>
+          <t>67e0306b0650a67af49c857c</t>
         </is>
       </c>
       <c r="AD165" t="n">
@@ -29290,7 +29290,7 @@
       </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f68</t>
+          <t>67e0306b0650a67af49c8598</t>
         </is>
       </c>
       <c r="AD167" t="n">
@@ -29474,7 +29474,7 @@
       </c>
       <c r="AC168" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487fe0</t>
+          <t>67e0306b0650a67af49c8610</t>
         </is>
       </c>
       <c r="AD168" t="n">
@@ -29658,7 +29658,7 @@
       </c>
       <c r="AC169" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487eda</t>
+          <t>67e0306b0650a67af49c850a</t>
         </is>
       </c>
       <c r="AD169" t="n">
@@ -30266,7 +30266,7 @@
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f59</t>
+          <t>67e0306b0650a67af49c8589</t>
         </is>
       </c>
       <c r="AD174" t="n">
@@ -30450,7 +30450,7 @@
       </c>
       <c r="AC175" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ff8</t>
+          <t>67e0306b0650a67af49c8628</t>
         </is>
       </c>
       <c r="AD175" t="n">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="AC176" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f2a</t>
+          <t>67e0306b0650a67af49c855a</t>
         </is>
       </c>
       <c r="AD176" t="n">
@@ -30818,7 +30818,7 @@
       </c>
       <c r="AC177" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f2c</t>
+          <t>67e0306b0650a67af49c855c</t>
         </is>
       </c>
       <c r="AD177" t="n">
@@ -31002,7 +31002,7 @@
       </c>
       <c r="AC178" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487eb8</t>
+          <t>67e0306b0650a67af49c84e8</t>
         </is>
       </c>
       <c r="AD178" t="n">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="AC179" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd488003</t>
+          <t>67e0306b0650a67af49c8633</t>
         </is>
       </c>
       <c r="AD179" t="n">
@@ -31370,7 +31370,7 @@
       </c>
       <c r="AC180" t="inlineStr">
         <is>
-          <t>67d5d66f4d0df48dfd488045</t>
+          <t>67e0306b0650a67af49c8675</t>
         </is>
       </c>
       <c r="AD180" t="n">
@@ -31554,7 +31554,7 @@
       </c>
       <c r="AC181" t="inlineStr">
         <is>
-          <t>67d5d66f4d0df48dfd488043</t>
+          <t>67e0306b0650a67af49c8673</t>
         </is>
       </c>
       <c r="AD181" t="n">
@@ -31738,7 +31738,7 @@
       </c>
       <c r="AC182" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487fca</t>
+          <t>67e0306b0650a67af49c85fa</t>
         </is>
       </c>
       <c r="AD182" t="n">
@@ -31922,7 +31922,7 @@
       </c>
       <c r="AC183" t="inlineStr">
         <is>
-          <t>67d5d66f4d0df48dfd488058</t>
+          <t>67e0306b0650a67af49c8688</t>
         </is>
       </c>
       <c r="AD183" t="n">
@@ -32106,7 +32106,7 @@
       </c>
       <c r="AC184" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487feb</t>
+          <t>67e0306b0650a67af49c861b</t>
         </is>
       </c>
       <c r="AD184" t="n">
@@ -32290,7 +32290,7 @@
       </c>
       <c r="AC185" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ec5</t>
+          <t>67e0306b0650a67af49c84f5</t>
         </is>
       </c>
       <c r="AD185" t="n">
@@ -32474,7 +32474,7 @@
       </c>
       <c r="AC186" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487fa1</t>
+          <t>67e0306b0650a67af49c85d1</t>
         </is>
       </c>
       <c r="AD186" t="n">
@@ -32658,7 +32658,7 @@
       </c>
       <c r="AC187" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ee7</t>
+          <t>67e0306b0650a67af49c8517</t>
         </is>
       </c>
       <c r="AD187" t="n">
@@ -32842,7 +32842,7 @@
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ee7</t>
+          <t>67e0306b0650a67af49c8517</t>
         </is>
       </c>
       <c r="AD188" t="n">
@@ -33026,7 +33026,7 @@
       </c>
       <c r="AC189" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487ee5</t>
+          <t>67e0306b0650a67af49c8515</t>
         </is>
       </c>
       <c r="AD189" t="n">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="AC190" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd48801b</t>
+          <t>67e0306b0650a67af49c864b</t>
         </is>
       </c>
       <c r="AD190" t="n">
@@ -33394,7 +33394,7 @@
       </c>
       <c r="AC191" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd48801b</t>
+          <t>67e0306b0650a67af49c864b</t>
         </is>
       </c>
       <c r="AD191" t="n">
@@ -33578,7 +33578,7 @@
       </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f8a</t>
+          <t>67e0306b0650a67af49c85ba</t>
         </is>
       </c>
       <c r="AD192" t="n">
@@ -33762,7 +33762,7 @@
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>67d5d66e4d0df48dfd487f8c</t>
+          <t>67e0306b0650a67af49c85bc</t>
         </is>
       </c>
       <c r="AD193" t="n">

--- a/updated_filtered_data_with_lengths_carapace-kalkar.xlsx
+++ b/updated_filtered_data_with_lengths_carapace-kalkar.xlsx
@@ -828,7 +828,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c1</t>
+          <t>680e26b431403b86a91f065e</t>
         </is>
       </c>
       <c r="AF2" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c5</t>
+          <t>680e26b431403b86a91f0662</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c3</t>
+          <t>680e26b431403b86a91f0660</t>
         </is>
       </c>
       <c r="AF4" t="n">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c7</t>
+          <t>680e26b431403b86a91f0664</t>
         </is>
       </c>
       <c r="AF5" t="n">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4e3</t>
+          <t>680e26b531403b86a91f0980</t>
         </is>
       </c>
       <c r="AF6" t="n">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4e5</t>
+          <t>680e26b531403b86a91f0982</t>
         </is>
       </c>
       <c r="AF7" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4e7</t>
+          <t>680e26b531403b86a91f0984</t>
         </is>
       </c>
       <c r="AF8" t="n">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf663</t>
+          <t>680e26b531403b86a91f0b00</t>
         </is>
       </c>
       <c r="AF9" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf661</t>
+          <t>680e26b531403b86a91f0afe</t>
         </is>
       </c>
       <c r="AF10" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38c</t>
+          <t>680e26b531403b86a91f0829</t>
         </is>
       </c>
       <c r="AF11" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38a</t>
+          <t>680e26b531403b86a91f0827</t>
         </is>
       </c>
       <c r="AF12" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38c</t>
+          <t>680e26b531403b86a91f0829</t>
         </is>
       </c>
       <c r="AF13" t="n">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38e</t>
+          <t>680e26b531403b86a91f082b</t>
         </is>
       </c>
       <c r="AF14" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2aa</t>
+          <t>680e26b431403b86a91f0747</t>
         </is>
       </c>
       <c r="AF15" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2a8</t>
+          <t>680e26b431403b86a91f0745</t>
         </is>
       </c>
       <c r="AF16" t="n">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf547</t>
+          <t>680e26b531403b86a91f09e4</t>
         </is>
       </c>
       <c r="AF17" t="n">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf549</t>
+          <t>680e26b531403b86a91f09e6</t>
         </is>
       </c>
       <c r="AF18" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf247</t>
+          <t>680e26b431403b86a91f06e4</t>
         </is>
       </c>
       <c r="AF19" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf245</t>
+          <t>680e26b431403b86a91f06e2</t>
         </is>
       </c>
       <c r="AF20" t="n">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf24b</t>
+          <t>680e26b431403b86a91f06e8</t>
         </is>
       </c>
       <c r="AF21" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf17d</t>
+          <t>680e26b431403b86a91f061a</t>
         </is>
       </c>
       <c r="AF22" t="n">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf17f</t>
+          <t>680e26b431403b86a91f061c</t>
         </is>
       </c>
       <c r="AF23" t="n">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf17b</t>
+          <t>680e26b431403b86a91f0618</t>
         </is>
       </c>
       <c r="AF24" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3bb</t>
+          <t>680e26b531403b86a91f0858</t>
         </is>
       </c>
       <c r="AF25" t="n">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3b7</t>
+          <t>680e26b531403b86a91f0854</t>
         </is>
       </c>
       <c r="AF26" t="n">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3b9</t>
+          <t>680e26b531403b86a91f0856</t>
         </is>
       </c>
       <c r="AF27" t="n">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf351</t>
+          <t>680e26b431403b86a91f07ee</t>
         </is>
       </c>
       <c r="AF35" t="n">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf357</t>
+          <t>680e26b431403b86a91f07f4</t>
         </is>
       </c>
       <c r="AF36" t="n">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf355</t>
+          <t>680e26b431403b86a91f07f2</t>
         </is>
       </c>
       <c r="AF37" t="n">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf34d</t>
+          <t>680e26b431403b86a91f07ea</t>
         </is>
       </c>
       <c r="AF38" t="n">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf34f</t>
+          <t>680e26b431403b86a91f07ec</t>
         </is>
       </c>
       <c r="AF39" t="n">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf409</t>
+          <t>680e26b531403b86a91f08a6</t>
         </is>
       </c>
       <c r="AF40" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf40b</t>
+          <t>680e26b531403b86a91f08a8</t>
         </is>
       </c>
       <c r="AF41" t="n">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf415</t>
+          <t>680e26b531403b86a91f08b2</t>
         </is>
       </c>
       <c r="AF42" t="n">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf40d</t>
+          <t>680e26b531403b86a91f08aa</t>
         </is>
       </c>
       <c r="AF43" t="n">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf201</t>
+          <t>680e26b431403b86a91f069e</t>
         </is>
       </c>
       <c r="AF44" t="n">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf203</t>
+          <t>680e26b431403b86a91f06a0</t>
         </is>
       </c>
       <c r="AF45" t="n">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf203</t>
+          <t>680e26b431403b86a91f06a0</t>
         </is>
       </c>
       <c r="AF46" t="n">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3de</t>
+          <t>680e26b531403b86a91f087b</t>
         </is>
       </c>
       <c r="AF47" t="n">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3da</t>
+          <t>680e26b531403b86a91f0877</t>
         </is>
       </c>
       <c r="AF48" t="n">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3d8</t>
+          <t>680e26b531403b86a91f0875</t>
         </is>
       </c>
       <c r="AF49" t="n">
@@ -9372,7 +9372,7 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3d6</t>
+          <t>680e26b531403b86a91f0873</t>
         </is>
       </c>
       <c r="AF50" t="n">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf50c</t>
+          <t>680e26b531403b86a91f09a9</t>
         </is>
       </c>
       <c r="AF51" t="n">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf508</t>
+          <t>680e26b531403b86a91f09a5</t>
         </is>
       </c>
       <c r="AF52" t="n">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf512</t>
+          <t>680e26b531403b86a91f09af</t>
         </is>
       </c>
       <c r="AF53" t="n">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf50a</t>
+          <t>680e26b531403b86a91f09a7</t>
         </is>
       </c>
       <c r="AF54" t="n">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf506</t>
+          <t>680e26b531403b86a91f09a3</t>
         </is>
       </c>
       <c r="AF55" t="n">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf461</t>
+          <t>680e26b531403b86a91f08fe</t>
         </is>
       </c>
       <c r="AF56" t="n">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf45d</t>
+          <t>680e26b531403b86a91f08fa</t>
         </is>
       </c>
       <c r="AF57" t="n">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf45b</t>
+          <t>680e26b531403b86a91f08f8</t>
         </is>
       </c>
       <c r="AF58" t="n">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf45f</t>
+          <t>680e26b531403b86a91f08fc</t>
         </is>
       </c>
       <c r="AF59" t="n">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf461</t>
+          <t>680e26b531403b86a91f08fe</t>
         </is>
       </c>
       <c r="AF60" t="n">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf467</t>
+          <t>680e26b531403b86a91f0904</t>
         </is>
       </c>
       <c r="AF61" t="n">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1ec</t>
+          <t>680e26b431403b86a91f0689</t>
         </is>
       </c>
       <c r="AF62" t="n">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1ea</t>
+          <t>680e26b431403b86a91f0687</t>
         </is>
       </c>
       <c r="AF63" t="n">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf676</t>
+          <t>680e26b531403b86a91f0b13</t>
         </is>
       </c>
       <c r="AF64" t="n">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf678</t>
+          <t>680e26b531403b86a91f0b15</t>
         </is>
       </c>
       <c r="AF65" t="n">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf67a</t>
+          <t>680e26b531403b86a91f0b17</t>
         </is>
       </c>
       <c r="AF66" t="n">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4b1</t>
+          <t>680e26b531403b86a91f094e</t>
         </is>
       </c>
       <c r="AF67" t="n">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4af</t>
+          <t>680e26b531403b86a91f094c</t>
         </is>
       </c>
       <c r="AF68" t="n">
@@ -12982,7 +12982,7 @@
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4ad</t>
+          <t>680e26b531403b86a91f094a</t>
         </is>
       </c>
       <c r="AF69" t="n">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4b7</t>
+          <t>680e26b531403b86a91f0954</t>
         </is>
       </c>
       <c r="AF70" t="n">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5af</t>
+          <t>680e26b531403b86a91f0a4c</t>
         </is>
       </c>
       <c r="AF71" t="n">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5b3</t>
+          <t>680e26b531403b86a91f0a50</t>
         </is>
       </c>
       <c r="AF72" t="n">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5ab</t>
+          <t>680e26b531403b86a91f0a48</t>
         </is>
       </c>
       <c r="AF73" t="n">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5a9</t>
+          <t>680e26b531403b86a91f0a46</t>
         </is>
       </c>
       <c r="AF74" t="n">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5ad</t>
+          <t>680e26b531403b86a91f0a4a</t>
         </is>
       </c>
       <c r="AF75" t="n">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2bd</t>
+          <t>680e26b431403b86a91f075a</t>
         </is>
       </c>
       <c r="AF76" t="n">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2c3</t>
+          <t>680e26b431403b86a91f0760</t>
         </is>
       </c>
       <c r="AF77" t="n">
@@ -14690,7 +14690,7 @@
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2c1</t>
+          <t>680e26b431403b86a91f075e</t>
         </is>
       </c>
       <c r="AF78" t="n">
@@ -14880,7 +14880,7 @@
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2bf</t>
+          <t>680e26b431403b86a91f075c</t>
         </is>
       </c>
       <c r="AF79" t="n">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf444</t>
+          <t>680e26b531403b86a91f08e1</t>
         </is>
       </c>
       <c r="AF80" t="n">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf444</t>
+          <t>680e26b531403b86a91f08e1</t>
         </is>
       </c>
       <c r="AF81" t="n">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2fd</t>
+          <t>680e26b431403b86a91f079a</t>
         </is>
       </c>
       <c r="AF82" t="n">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2fd</t>
+          <t>680e26b431403b86a91f079a</t>
         </is>
       </c>
       <c r="AF83" t="n">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2ff</t>
+          <t>680e26b431403b86a91f079c</t>
         </is>
       </c>
       <c r="AF84" t="n">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf268</t>
+          <t>680e26b431403b86a91f0705</t>
         </is>
       </c>
       <c r="AF85" t="n">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf26c</t>
+          <t>680e26b431403b86a91f0709</t>
         </is>
       </c>
       <c r="AF86" t="n">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf26e</t>
+          <t>680e26b431403b86a91f070b</t>
         </is>
       </c>
       <c r="AF87" t="n">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2ea</t>
+          <t>680e26b431403b86a91f0787</t>
         </is>
       </c>
       <c r="AF88" t="n">
@@ -16780,7 +16780,7 @@
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2e8</t>
+          <t>680e26b431403b86a91f0785</t>
         </is>
       </c>
       <c r="AF89" t="n">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="AE90" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e4</t>
+          <t>680e26b531403b86a91f0a81</t>
         </is>
       </c>
       <c r="AF90" t="n">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e6</t>
+          <t>680e26b531403b86a91f0a83</t>
         </is>
       </c>
       <c r="AF91" t="n">
@@ -17350,7 +17350,7 @@
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e8</t>
+          <t>680e26b531403b86a91f0a85</t>
         </is>
       </c>
       <c r="AF92" t="n">
@@ -17540,7 +17540,7 @@
       </c>
       <c r="AE93" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e8</t>
+          <t>680e26b531403b86a91f0a85</t>
         </is>
       </c>
       <c r="AF93" t="n">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="AE94" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e2</t>
+          <t>680e26b531403b86a91f0a7f</t>
         </is>
       </c>
       <c r="AF94" t="n">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="AE95" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e2</t>
+          <t>680e26b531403b86a91f0a7f</t>
         </is>
       </c>
       <c r="AF95" t="n">
@@ -18110,7 +18110,7 @@
       </c>
       <c r="AE96" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf326</t>
+          <t>680e26b431403b86a91f07c3</t>
         </is>
       </c>
       <c r="AF96" t="n">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf320</t>
+          <t>680e26b431403b86a91f07bd</t>
         </is>
       </c>
       <c r="AF97" t="n">
@@ -18490,7 +18490,7 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf322</t>
+          <t>680e26b431403b86a91f07bf</t>
         </is>
       </c>
       <c r="AF98" t="n">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="AE99" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf324</t>
+          <t>680e26b431403b86a91f07c1</t>
         </is>
       </c>
       <c r="AF99" t="n">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="AE100" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6e6</t>
+          <t>680e26b631403b86a91f0b83</t>
         </is>
       </c>
       <c r="AF100" t="n">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="AE101" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6ea</t>
+          <t>680e26b631403b86a91f0b87</t>
         </is>
       </c>
       <c r="AF101" t="n">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6e8</t>
+          <t>680e26b631403b86a91f0b85</t>
         </is>
       </c>
       <c r="AF102" t="n">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6ec</t>
+          <t>680e26b631403b86a91f0b89</t>
         </is>
       </c>
       <c r="AF103" t="n">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="AE104" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf28f</t>
+          <t>680e26b431403b86a91f072c</t>
         </is>
       </c>
       <c r="AF104" t="n">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="AE105" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf291</t>
+          <t>680e26b431403b86a91f072e</t>
         </is>
       </c>
       <c r="AF105" t="n">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="AE106" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf713</t>
+          <t>680e26b631403b86a91f0bb0</t>
         </is>
       </c>
       <c r="AF106" t="n">
@@ -20198,7 +20198,7 @@
       </c>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf711</t>
+          <t>680e26b631403b86a91f0bae</t>
         </is>
       </c>
       <c r="AF107" t="n">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AE108" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf715</t>
+          <t>680e26b631403b86a91f0bb2</t>
         </is>
       </c>
       <c r="AF108" t="n">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="AE109" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf71b</t>
+          <t>680e26b631403b86a91f0bb8</t>
         </is>
       </c>
       <c r="AF109" t="n">
@@ -20766,7 +20766,7 @@
       </c>
       <c r="AE110" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf55e</t>
+          <t>680e26b531403b86a91f09fb</t>
         </is>
       </c>
       <c r="AF110" t="n">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="AE111" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf560</t>
+          <t>680e26b531403b86a91f09fd</t>
         </is>
       </c>
       <c r="AF111" t="n">
@@ -21146,7 +21146,7 @@
       </c>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf581</t>
+          <t>680e26b531403b86a91f0a1e</t>
         </is>
       </c>
       <c r="AF112" t="n">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="AE113" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf57b</t>
+          <t>680e26b531403b86a91f0a18</t>
         </is>
       </c>
       <c r="AF113" t="n">
@@ -21526,7 +21526,7 @@
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf579</t>
+          <t>680e26b531403b86a91f0a16</t>
         </is>
       </c>
       <c r="AF114" t="n">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="AE115" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf695</t>
+          <t>680e26b531403b86a91f0b32</t>
         </is>
       </c>
       <c r="AF115" t="n">
@@ -21906,7 +21906,7 @@
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf695</t>
+          <t>680e26b531403b86a91f0b32</t>
         </is>
       </c>
       <c r="AF116" t="n">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf59e</t>
+          <t>680e26b531403b86a91f0a3b</t>
         </is>
       </c>
       <c r="AF117" t="n">
@@ -22286,7 +22286,7 @@
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf49c</t>
+          <t>680e26b531403b86a91f0939</t>
         </is>
       </c>
       <c r="AF118" t="n">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="AE119" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf224</t>
+          <t>680e26b431403b86a91f06c1</t>
         </is>
       </c>
       <c r="AF119" t="n">
@@ -22666,7 +22666,7 @@
       </c>
       <c r="AE120" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf226</t>
+          <t>680e26b431403b86a91f06c3</t>
         </is>
       </c>
       <c r="AF120" t="n">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="AE121" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf228</t>
+          <t>680e26b431403b86a91f06c5</t>
         </is>
       </c>
       <c r="AF121" t="n">
@@ -23046,7 +23046,7 @@
       </c>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1a4</t>
+          <t>680e26b431403b86a91f0641</t>
         </is>
       </c>
       <c r="AF122" t="n">
@@ -23236,7 +23236,7 @@
       </c>
       <c r="AE123" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1a2</t>
+          <t>680e26b431403b86a91f063f</t>
         </is>
       </c>
       <c r="AF123" t="n">
@@ -23426,7 +23426,7 @@
       </c>
       <c r="AE124" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf634</t>
+          <t>680e26b531403b86a91f0ad1</t>
         </is>
       </c>
       <c r="AF124" t="n">
@@ -23616,7 +23616,7 @@
       </c>
       <c r="AE125" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf632</t>
+          <t>680e26b531403b86a91f0acf</t>
         </is>
       </c>
       <c r="AF125" t="n">
@@ -23806,7 +23806,7 @@
       </c>
       <c r="AE126" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf636</t>
+          <t>680e26b531403b86a91f0ad3</t>
         </is>
       </c>
       <c r="AF126" t="n">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf638</t>
+          <t>680e26b531403b86a91f0ad5</t>
         </is>
       </c>
       <c r="AF127" t="n">
@@ -24186,7 +24186,7 @@
       </c>
       <c r="AE128" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf61f</t>
+          <t>680e26b531403b86a91f0abc</t>
         </is>
       </c>
       <c r="AF128" t="n">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="AE129" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf61d</t>
+          <t>680e26b531403b86a91f0aba</t>
         </is>
       </c>
       <c r="AF129" t="n">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="AE130" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4d8</t>
+          <t>680e26b531403b86a91f0975</t>
         </is>
       </c>
       <c r="AF130" t="n">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="AE131" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6bb</t>
+          <t>680e26b631403b86a91f0b58</t>
         </is>
       </c>
       <c r="AF131" t="n">
@@ -24946,7 +24946,7 @@
       </c>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6bb</t>
+          <t>680e26b631403b86a91f0b58</t>
         </is>
       </c>
       <c r="AF132" t="n">
@@ -25136,7 +25136,7 @@
       </c>
       <c r="AE133" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6bd</t>
+          <t>680e26b631403b86a91f0b5a</t>
         </is>
       </c>
       <c r="AF133" t="n">
@@ -25326,7 +25326,7 @@
       </c>
       <c r="AE134" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6b9</t>
+          <t>680e26b631403b86a91f0b56</t>
         </is>
       </c>
       <c r="AF134" t="n">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="AE135" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6aa</t>
+          <t>680e26b631403b86a91f0b47</t>
         </is>
       </c>
       <c r="AF135" t="n">
@@ -25706,7 +25706,7 @@
       </c>
       <c r="AE136" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf744</t>
+          <t>680e26b631403b86a91f0be1</t>
         </is>
       </c>
       <c r="AF136" t="n">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf742</t>
+          <t>680e26b631403b86a91f0bdf</t>
         </is>
       </c>
       <c r="AF137" t="n">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="AE138" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7b3</t>
+          <t>680e26b631403b86a91f0c50</t>
         </is>
       </c>
       <c r="AF138" t="n">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="AE139" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7af</t>
+          <t>680e26b631403b86a91f0c4c</t>
         </is>
       </c>
       <c r="AF139" t="n">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="AE141" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf82a</t>
+          <t>680e26b631403b86a91f0cc7</t>
         </is>
       </c>
       <c r="AF141" t="n">
@@ -26729,44 +26729,124 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
-      <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr"/>
-      <c r="AH142" t="inlineStr"/>
-      <c r="AI142" t="inlineStr"/>
-      <c r="AJ142" t="inlineStr"/>
-      <c r="AK142" t="inlineStr"/>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
-      <c r="AN142" t="inlineStr"/>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
-      <c r="AS142" t="inlineStr"/>
-      <c r="AT142" t="inlineStr"/>
-      <c r="AU142" t="inlineStr"/>
-      <c r="AV142" t="inlineStr"/>
-      <c r="AW142" t="inlineStr"/>
-      <c r="AX142" t="inlineStr"/>
-      <c r="AY142" t="inlineStr"/>
-      <c r="AZ142" t="inlineStr"/>
-      <c r="BA142" t="inlineStr"/>
-      <c r="BB142" t="inlineStr"/>
-      <c r="BC142" t="inlineStr"/>
-      <c r="BD142" t="inlineStr"/>
-      <c r="BE142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>0.1210900932699188</v>
+      </c>
+      <c r="U142" t="n">
+        <v>246.5310831435915</v>
+      </c>
+      <c r="V142" t="n">
+        <v>246.5310831435915</v>
+      </c>
+      <c r="W142" t="n">
+        <v>307.5063787751204</v>
+      </c>
+      <c r="X142" t="n">
+        <v>307.5063787751204</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>289.4998068301628</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>289.4998068301628</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>18.13165765123243</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>149.9999999999999</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>94.15468970431543</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0.120877717674883</v>
+      </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>680e26b631403b86a91f0da7</t>
+        </is>
+      </c>
+      <c r="AF142" t="n">
+        <v>11.40120015809582</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>415</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>11.33094786422173</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>245.1782208</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>306.1519483999999</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>288.128673</v>
+      </c>
+      <c r="AL142" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="AM142" t="n">
+        <v>94.15468970431543</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>62.9734990968569</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>72.02022146339495</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>69.09992639484015</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>19.39079984190418</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>29.34679984190417</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>25.49579984190416</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>19.46105213577827</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>29.41705213577826</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>25.56605213577825</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>63.20165022011648</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>72.19262819225058</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>69.29032749485937</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>12.66034234876757</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>22.61634234876757</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>18.76534234876755</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>41.11568702509603</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>55.5029506939422</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>50.85872116640259</v>
+      </c>
       <c r="BF142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -26980,7 +27060,7 @@
       </c>
       <c r="AE144" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8de</t>
+          <t>680e26b631403b86a91f0d7b</t>
         </is>
       </c>
       <c r="AF144" t="n">
@@ -27386,7 +27466,7 @@
       </c>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf904</t>
+          <t>680e26b631403b86a91f0db2</t>
         </is>
       </c>
       <c r="AF147" t="n">
@@ -27576,7 +27656,7 @@
       </c>
       <c r="AE148" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf904</t>
+          <t>680e26b631403b86a91f0db2</t>
         </is>
       </c>
       <c r="AF148" t="n">
@@ -27874,7 +27954,7 @@
       </c>
       <c r="AE150" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7c8</t>
+          <t>680e26b631403b86a91f0c65</t>
         </is>
       </c>
       <c r="AF150" t="n">
@@ -28064,7 +28144,7 @@
       </c>
       <c r="AE151" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf861</t>
+          <t>680e26b631403b86a91f0cfe</t>
         </is>
       </c>
       <c r="AF151" t="n">
@@ -28686,7 +28766,7 @@
       </c>
       <c r="AE156" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf892</t>
+          <t>680e26b631403b86a91f0d2f</t>
         </is>
       </c>
       <c r="AF156" t="n">
@@ -28876,7 +28956,7 @@
       </c>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7ea</t>
+          <t>680e26b631403b86a91f0c87</t>
         </is>
       </c>
       <c r="AF157" t="n">
@@ -29064,7 +29144,7 @@
       </c>
       <c r="AE158" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf876</t>
+          <t>680e26b631403b86a91f0d13</t>
         </is>
       </c>
       <c r="AF158" t="n">
@@ -29902,7 +29982,7 @@
       </c>
       <c r="AE165" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7f5</t>
+          <t>680e26b631403b86a91f0c92</t>
         </is>
       </c>
       <c r="AF165" t="n">
@@ -30200,7 +30280,7 @@
       </c>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf80d</t>
+          <t>680e26b631403b86a91f0caa</t>
         </is>
       </c>
       <c r="AF167" t="n">
@@ -30390,7 +30470,7 @@
       </c>
       <c r="AE168" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8aa</t>
+          <t>680e26b631403b86a91f0d47</t>
         </is>
       </c>
       <c r="AF168" t="n">
@@ -30580,7 +30660,7 @@
       </c>
       <c r="AE169" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf783</t>
+          <t>680e26b631403b86a91f0c20</t>
         </is>
       </c>
       <c r="AF169" t="n">
@@ -31094,7 +31174,7 @@
       </c>
       <c r="AE173" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf89f</t>
+          <t>680e26b631403b86a91f0d3c</t>
         </is>
       </c>
       <c r="AF173" t="n">
@@ -31284,7 +31364,7 @@
       </c>
       <c r="AE174" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf802</t>
+          <t>680e26b631403b86a91f0c9f</t>
         </is>
       </c>
       <c r="AF174" t="n">
@@ -31474,7 +31554,7 @@
       </c>
       <c r="AE175" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8c6</t>
+          <t>680e26b631403b86a91f0d63</t>
         </is>
       </c>
       <c r="AF175" t="n">
@@ -31664,7 +31744,7 @@
       </c>
       <c r="AE176" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7d5</t>
+          <t>680e26b631403b86a91f0c72</t>
         </is>
       </c>
       <c r="AF176" t="n">
@@ -31854,7 +31934,7 @@
       </c>
       <c r="AE177" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7d7</t>
+          <t>680e26b631403b86a91f0c74</t>
         </is>
       </c>
       <c r="AF177" t="n">
@@ -32044,7 +32124,7 @@
       </c>
       <c r="AE178" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf759</t>
+          <t>680e26b631403b86a91f0bf6</t>
         </is>
       </c>
       <c r="AF178" t="n">
@@ -32234,7 +32314,7 @@
       </c>
       <c r="AE179" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8d3</t>
+          <t>680e26b631403b86a91f0d70</t>
         </is>
       </c>
       <c r="AF179" t="n">
@@ -32424,7 +32504,7 @@
       </c>
       <c r="AE180" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf91d</t>
+          <t>680e26b631403b86a91f0dcb</t>
         </is>
       </c>
       <c r="AF180" t="n">
@@ -32614,7 +32694,7 @@
       </c>
       <c r="AE181" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf921</t>
+          <t>680e26b631403b86a91f0dcf</t>
         </is>
       </c>
       <c r="AF181" t="n">
@@ -32802,7 +32882,7 @@
       </c>
       <c r="AE182" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf881</t>
+          <t>680e26b631403b86a91f0d1e</t>
         </is>
       </c>
       <c r="AF182" t="n">
@@ -32992,7 +33072,7 @@
       </c>
       <c r="AE183" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf93e</t>
+          <t>680e26b631403b86a91f0dec</t>
         </is>
       </c>
       <c r="AF183" t="n">
@@ -33180,7 +33260,7 @@
       </c>
       <c r="AE184" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8b5</t>
+          <t>680e26b631403b86a91f0d52</t>
         </is>
       </c>
       <c r="AF184" t="n">
@@ -33370,7 +33450,7 @@
       </c>
       <c r="AE185" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf768</t>
+          <t>680e26b631403b86a91f0c05</t>
         </is>
       </c>
       <c r="AF185" t="n">
@@ -33560,7 +33640,7 @@
       </c>
       <c r="AE186" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf852</t>
+          <t>680e26b631403b86a91f0cef</t>
         </is>
       </c>
       <c r="AF186" t="n">
@@ -33750,7 +33830,7 @@
       </c>
       <c r="AE187" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf790</t>
+          <t>680e26b631403b86a91f0c2d</t>
         </is>
       </c>
       <c r="AF187" t="n">
@@ -33940,7 +34020,7 @@
       </c>
       <c r="AE188" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf790</t>
+          <t>680e26b631403b86a91f0c2d</t>
         </is>
       </c>
       <c r="AF188" t="n">
@@ -34130,7 +34210,7 @@
       </c>
       <c r="AE189" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf78e</t>
+          <t>680e26b631403b86a91f0c2b</t>
         </is>
       </c>
       <c r="AF189" t="n">
@@ -34320,7 +34400,7 @@
       </c>
       <c r="AE190" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8ef</t>
+          <t>680e26b631403b86a91f0d8c</t>
         </is>
       </c>
       <c r="AF190" t="n">
@@ -34510,7 +34590,7 @@
       </c>
       <c r="AE191" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8ef</t>
+          <t>680e26b631403b86a91f0d8c</t>
         </is>
       </c>
       <c r="AF191" t="n">
@@ -34700,7 +34780,7 @@
       </c>
       <c r="AE192" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf83b</t>
+          <t>680e26b631403b86a91f0cd8</t>
         </is>
       </c>
       <c r="AF192" t="n">
@@ -34890,7 +34970,7 @@
       </c>
       <c r="AE193" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf83d</t>
+          <t>680e26b631403b86a91f0cda</t>
         </is>
       </c>
       <c r="AF193" t="n">
